--- a/bang_ke/bly/mapping.xlsx
+++ b/bang_ke/bly/mapping.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Tools\bang_ke\bly\Nova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bang_Ke\Tools\bang_ke\bly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F652CC-C617-41BD-ADCD-1783E727C734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1044" windowWidth="14376" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1044" windowWidth="14376" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nova Nhập" sheetId="1" r:id="rId1"/>
-    <sheet name="Nova Xuất" sheetId="2" r:id="rId2"/>
+    <sheet name="Phụ Phí Nhập" sheetId="3" r:id="rId2"/>
+    <sheet name="Nova Xuất" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>File Theo Dõi</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>S</t>
@@ -125,13 +122,104 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Phí thủ tục hải quan</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển</t>
+  </si>
+  <si>
+    <t>Phụ thu vận chuyển (hàng nặng &gt; 25 tấn)</t>
+  </si>
+  <si>
+    <t>报关服务费</t>
+  </si>
+  <si>
+    <t>运输服务费</t>
+  </si>
+  <si>
+    <t>超重运输附加费
+(超过&gt;25吨的货物)</t>
+  </si>
+  <si>
+    <t>PHỤ THU VC HÀNG NẶNG
+ &gt; 25 TẤN</t>
+  </si>
+  <si>
+    <t>PHỤ THU VC HÀNG NẶNG 
+( từ 21.8 tấn - 25 tấn)</t>
+  </si>
+  <si>
+    <t>Phụ thu lấy cont xa 
+(cảng CÁI MÉP)</t>
+  </si>
+  <si>
+    <t>Phụ thu lấy cont xa 
+(cảng Hiệp Phước)</t>
+  </si>
+  <si>
+    <t>Phí BOT</t>
+  </si>
+  <si>
+    <t>Phí Hóa chất</t>
+  </si>
+  <si>
+    <t>Phụ thu 
+Kiểm hóa</t>
+  </si>
+  <si>
+    <t>Phí hun trùng</t>
+  </si>
+  <si>
+    <t>Phí chứng nhận hợp quy</t>
+  </si>
+  <si>
+    <t>Phí Tham vấn giá</t>
+  </si>
+  <si>
+    <t>800000*K + 800000*L</t>
+  </si>
+  <si>
+    <t>3450000*K + 3550000*L</t>
+  </si>
+  <si>
+    <t>900000*K</t>
+  </si>
+  <si>
+    <t>运输附加费（重量从21.8吨至 - 25吨）</t>
+  </si>
+  <si>
+    <t>Phụ thu vận chuyển 
+(hàng nặng từ 21.8 tấn - 25 tấn)</t>
+  </si>
+  <si>
+    <t>Phí nâng cont</t>
+  </si>
+  <si>
+    <t>吊上柜费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phí hạ cont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">吊下柜费 </t>
+  </si>
+  <si>
+    <t>Phí cơ sở hạ tầng</t>
+  </si>
+  <si>
+    <t>海港基础设施使用费</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,22 +229,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,26 +283,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,11 +635,670 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -501,496 +1309,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="40.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
